--- a/Finflux Automation Excels/Client/4938-Mifos-EI-DB-SAR-Charges-writeoff.xlsx
+++ b/Finflux Automation Excels/Client/4938-Mifos-EI-DB-SAR-Charges-writeoff.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>clickonmorebutton</t>
   </si>
@@ -39,9 +39,6 @@
     <t>waittopageload</t>
   </si>
   <si>
-    <t>editTransactionDate</t>
-  </si>
-  <si>
     <t>clickonsubmit</t>
   </si>
   <si>
@@ -69,12 +66,6 @@
     <t>Principal</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Interest(%)</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -139,13 +130,16 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>Interest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +159,21 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -204,24 +213,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,16 +552,8 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>42095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -565,112 +566,112 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>788.49</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="8">
         <v>9211.51</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>661.86</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>92.12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>469.74</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>99.99</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>7.88</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>92.11</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>7.96</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>7.96</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -683,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,676 +699,673 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>12</v>
+      <c r="Q1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7">
         <v>10000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>42036</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
+      <c r="E3" s="10"/>
+      <c r="F3" s="4">
         <v>788.49</v>
       </c>
       <c r="G3" s="8">
         <v>9211.51</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>100</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>7.88</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>896.37</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>896.37</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>28</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>42064</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>42095</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="E4" s="10"/>
+      <c r="F4" s="4">
         <v>796.37</v>
       </c>
       <c r="G4" s="8">
         <v>8415.14</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>92.12</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>7.96</v>
       </c>
-      <c r="J4" s="7">
-        <v>7.96</v>
-      </c>
-      <c r="K4" s="7">
-        <v>904.41</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>896.45</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
         <v>92.12</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>42095</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>42095</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="E5" s="10"/>
+      <c r="F5" s="4">
         <v>804.34</v>
       </c>
       <c r="G5" s="8">
         <v>7610.8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>84.15</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>8.0399999999999991</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>896.53</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="J5" s="4">
+        <v>7.96</v>
+      </c>
+      <c r="K5" s="4">
+        <v>904.49</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>30</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>42125</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>42095</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="E6" s="10"/>
+      <c r="F6" s="4">
         <v>812.38</v>
       </c>
       <c r="G6" s="8">
         <v>6798.42</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>76.11</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>896.61</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>31</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>42156</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>42095</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="E7" s="10"/>
+      <c r="F7" s="4">
         <v>820.51</v>
       </c>
       <c r="G7" s="8">
         <v>5977.91</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>67.98</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>8.2100000000000009</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>896.7</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>42186</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>42095</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="E8" s="10"/>
+      <c r="F8" s="4">
         <v>828.71</v>
       </c>
       <c r="G8" s="8">
         <v>5149.2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>59.78</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>8.2899999999999991</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>896.78</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>31</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>42217</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>42095</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="E9" s="10"/>
+      <c r="F9" s="4">
         <v>837</v>
       </c>
       <c r="G9" s="8">
         <v>4312.2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>51.49</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>8.3699999999999992</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>896.86</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>31</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>42248</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>42095</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="E10" s="10"/>
+      <c r="F10" s="4">
         <v>845.37</v>
       </c>
       <c r="G10" s="8">
         <v>3466.83</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>43.12</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>8.4499999999999993</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>896.94</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>30</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>42278</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>42095</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="E11" s="10"/>
+      <c r="F11" s="4">
         <v>853.82</v>
       </c>
       <c r="G11" s="8">
         <v>2613.0100000000002</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>34.67</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>8.5399999999999991</v>
       </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>897.03</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>31</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>42309</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>42095</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="E12" s="10"/>
+      <c r="F12" s="4">
         <v>862.36</v>
       </c>
       <c r="G12" s="8">
         <v>1750.65</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>26.13</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>8.6199999999999992</v>
       </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>897.11</v>
       </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>30</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>42339</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>42095</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="E13" s="10"/>
+      <c r="F13" s="4">
         <v>870.98</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>879.67</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>17.510000000000002</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>8.7100000000000009</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>897.2</v>
       </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>31</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>42370</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>42095</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="E14" s="10"/>
+      <c r="F14" s="4">
         <v>879.67</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>897.27</v>
       </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1378,68 +1376,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>521</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C2" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>177</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="10">
-        <v>42095</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="8">
         <v>9781.32</v>
@@ -1447,114 +1448,122 @@
       <c r="F2" s="8">
         <v>9211.51</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>469.74</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>92.11</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>7.96</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>175</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>520</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9">
         <v>42050</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4">
         <v>92.12</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>92.12</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3" s="8">
         <v>9211.51</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>174</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>519</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="10">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>896.37</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>788.49</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>100</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>7.88</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="8">
         <v>9211.51</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>171</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>516</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9">
         <v>42005</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7">
         <v>10000</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>10000</v>
       </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
